--- a/spec/fixtures/dropbox/example_batch_ingest/wrong_filename_manifest.xlsx
+++ b/spec/fixtures/dropbox/example_batch_ingest/wrong_filename_manifest.xlsx
@@ -5,100 +5,117 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="501" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
-  <si>
-    <t>Frances Dickens</t>
-  </si>
-  <si>
-    <t>frances.dickens@reichel.com</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t>Date Issued</t>
-  </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Skip Transcoding</t>
-  </si>
-  <si>
-    <t>Absolute Location</t>
-  </si>
-  <si>
-    <t>Dolorum</t>
-  </si>
-  <si>
-    <t>Carroll, Nora</t>
-  </si>
-  <si>
-    <t>Ut minus ut accusantium odio autem odit.</t>
-  </si>
-  <si>
-    <t>assets/sheephead_mountain_wrong.mov</t>
-  </si>
-  <si>
-    <t>00:00:00.500</t>
-  </si>
-  <si>
-    <t>Quis quo</t>
-  </si>
-  <si>
-    <t>assets/sheephead_mountain.mov</t>
-  </si>
-  <si>
-    <t>Unde aliquid</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>file:///tmp/sheephead_mountain_master.mov</t>
-  </si>
-  <si>
-    <t>assets/jazz-performance.mp3</t>
-  </si>
-  <si>
-    <t>Audio</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Laborum</t>
-  </si>
-  <si>
-    <t>Moen, Eveline</t>
-  </si>
-  <si>
-    <t>Yes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+  <si>
+    <t xml:space="preserve">Frances Dickens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frances.dickens@reichel.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skip Transcoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topical Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolorum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carroll, Nora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ut minus ut accusantium odio autem odit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/sheephead_mountain_wrong.mov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:00.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quis quo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/sheephead_mountain.mov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unde aliquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file:///tmp/sheephead_mountain_master.mov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/jazz-performance.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laborum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moen, Eveline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
   </si>
 </sst>
 </file>
@@ -106,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -148,7 +165,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -157,51 +174,51 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -211,34 +228,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5023255813954"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1720930232558"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.493023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.50232558139535"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.8279069767442"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.0046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49767441860465"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.8279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.0046511627907"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5023255813954"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.9906976744186"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.3302325581395"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.3255813953488"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.9953488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.9906976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.84186046511628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.7"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.4962962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.4962962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="40.2740740740741"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.8703703703704"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.07407407407407"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -247,7 +264,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -296,86 +313,104 @@
       <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="Q2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>20</v>
+      <c r="R4" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="5"/>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="file:///tmp/sheephead_mountain_master.mov" ref="M3" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId1" display="file:///tmp/sheephead_mountain_master.mov"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/spec/fixtures/dropbox/example_batch_ingest/wrong_filename_manifest.xlsx
+++ b/spec/fixtures/dropbox/example_batch_ingest/wrong_filename_manifest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t xml:space="preserve">Frances Dickens</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">Topical Subject</t>
   </si>
   <si>
+    <t xml:space="preserve">Genre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dolorum</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicycle</t>
   </si>
   <si>
     <t xml:space="preserve">Laborum</t>
@@ -228,31 +234,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2:R4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3555555555556"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.7"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.4962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.4962962962963"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="40.2740740740741"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.8703703703704"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.07407407407407"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4592592592593"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.337037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.1814814814815"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.1814814814815"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="26.5555555555556"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.17407407407407"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -319,88 +325,97 @@
       <c r="R2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="S2" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
